--- a/biology/Histoire de la zoologie et de la botanique/Aklilu_Lemma/Aklilu_Lemma.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Aklilu_Lemma/Aklilu_Lemma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aklilu Lemma (1934 - 5 avril 1997) est un médecin éthiopien, docteur en pathologie. Il est co-lauréat du Right Livelihood Award, en 1989 pour ses travaux ayant contribué à des avancées scientifiques importantes dans la lutte contre la bilharziose dans le Tiers-Monde. Cette maladie constitue la seconde endémie parasitaire mondiale après le paludisme selon l’OMS.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aklilu Lemma  obtient un doctorat de pathologie à l'université Johns-Hopkins de Baltimore, États-Unis. Il a au cours de sa carrière en Éthiopie occupé de nombreux postes universitaires notamment en tant que doyen fondateur de la faculté des sciences et directeur de l'institut de pathologie à l'université d'Addis Abeba. À partir de 1976, il travaille avec les Nations unies en tant que ‘’Senior Advisor of Technology of Health and Development’’, et devient directeur adjoint du Centre de développement international pour l’enfance de l’UNICEF à Florence, en Italie, avant d’occuper un poste de professeur en tant qu’intervenant extérieur au département de la médecine internationale à l'université Johns-Hopkins.
 Aklilu Lemma est organisateur en chef et vice-président du Comité national pour l'établissement du conseil de recherche scientifique et technique national d'Éthiopie. Il devient conseiller en chef pour la science et la technologie du gouvernement éthiopien dans les années 1960 et mène à la fondation de la commission éthiopienne de la science et de technologie.
@@ -555,7 +569,9 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Nous avons trouvé un médicament de pauvres pour une maladie de pauvres ».
 </t>
@@ -586,7 +602,9 @@
           <t>Articles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>An overview of prospects for schistosomiasis control with the use of endod as a molluscicide on a community self-help basis, GOLL P. H. ; LEMMA A. ; DUNCAN J. ; MAZENGIA B. ; Tropenmedizin und Parasitologie, 1983, vol. 34, no3, pp. 177-183, ISSN 0303-4208   [[lire en ligne]
 The Berry and the Parasite, Scientific American Magazine, avril 1996[lire en ligne]</t>
